--- a/Översikt MUNKEDAL.xlsx
+++ b/Översikt MUNKEDAL.xlsx
@@ -575,7 +575,7 @@
         <v>45517</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>45624.81018518518</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -779,7 +779,7 @@
         <v>44342</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>44581</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>44340</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>44903</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         <v>44361</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>45313</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>44676</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>45674.65603009259</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>44491.56581018519</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>44601</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>45575.6496412037</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>44978</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1840,7 +1840,7 @@
         <v>45313</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1925,7 +1925,7 @@
         <v>44943</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>45895.62070601852</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>45539</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>45670</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>44672.59796296297</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         <v>45947</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>45458</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>44889.55938657407</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>44339</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>44554.44054398148</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>44421.56398148148</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         <v>44251</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>44525</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>44664</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>44683</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>44509</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>44439</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>44651</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>44432.66158564815</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>44690</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>44581.38011574074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>44527</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>44831.70172453704</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>44580.49329861111</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>44563</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>44441</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>44806</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         <v>44414</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3741,7 +3741,7 @@
         <v>44411</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>44354.35579861111</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
         <v>44351</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>44356</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3969,7 +3969,7 @@
         <v>44277</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4026,7 +4026,7 @@
         <v>44691</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         <v>44277</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         <v>44866</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4197,7 +4197,7 @@
         <v>44497</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>44412</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>44630</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>44369</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         <v>44834</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>44358</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         <v>44358.5559375</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         <v>44459</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4663,7 +4663,7 @@
         <v>44438</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         <v>44246</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4782,7 +4782,7 @@
         <v>44866</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>44358.55907407407</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         <v>44823</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         <v>44325</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>44357.5115162037</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>44439.47009259259</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>44439</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>44607.49695601852</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>44385.52923611111</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>44704.61637731481</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>44683</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>44459.41528935185</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>44529.54961805556</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         <v>44609</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         <v>44678</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5637,7 +5637,7 @@
         <v>44356</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>44697.37650462963</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>45321.45766203704</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>45596.51541666667</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>45596.52245370371</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>45147</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>45488.45196759259</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>45488.45628472222</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         <v>44929.6516550926</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>44487</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6207,7 +6207,7 @@
         <v>45261</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>44579</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>45747.52431712963</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>45747.52716435185</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>45322.36609953704</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>45392.58446759259</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>44481.53412037037</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>45097</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>45640</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>45419.52296296296</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>45517.57771990741</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>45049</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>44747</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>45546.64320601852</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>45478.48052083333</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>45244</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>45573.4730324074</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>45736</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>45684.59584490741</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>45231.52905092593</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>45388.79927083333</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>45022.36556712963</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>45540.51292824074</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7538,7 +7538,7 @@
         <v>45540</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7600,7 +7600,7 @@
         <v>45154.62202546297</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>45166.35552083333</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         <v>45750.3245949074</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>45588.55344907408</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>45266.8790625</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>45189</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>44866</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>44447</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>45084.84119212963</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8118,7 +8118,7 @@
         <v>45084</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8175,7 +8175,7 @@
         <v>45800.65958333333</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         <v>45728.24693287037</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>45293</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>45803.55378472222</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>45884.48247685185</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>45755.49856481481</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>45264</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>44760</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>44630.59177083334</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>45804.60773148148</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8755,7 +8755,7 @@
         <v>45568.46953703704</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         <v>45819.34091435185</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>44694</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>45821.27439814815</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>45625</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>45723.67199074074</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>45805.3340625</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>45455.61503472222</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>45887.78379629629</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>45174</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         <v>45688.86247685185</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9392,7 +9392,7 @@
         <v>45557</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
         <v>45891</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         <v>45891</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>45890.56799768518</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>45890.57114583333</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>45762.75453703704</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>45890.63438657407</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>45111.53703703704</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9853,7 +9853,7 @@
         <v>45076</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>45029.43625</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>44935</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10024,7 +10024,7 @@
         <v>45229</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10081,7 +10081,7 @@
         <v>45895.6833449074</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10138,7 +10138,7 @@
         <v>45895.6096412037</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10195,7 +10195,7 @@
         <v>45894.54315972222</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10252,7 +10252,7 @@
         <v>44984</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10309,7 +10309,7 @@
         <v>45618.59667824074</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10366,7 +10366,7 @@
         <v>45897.3319675926</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>44806</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10485,7 +10485,7 @@
         <v>44357</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10542,7 +10542,7 @@
         <v>45901.59224537037</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10599,7 +10599,7 @@
         <v>45819.30428240741</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>45819.31267361111</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>45819.32221064815</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>45898</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10827,7 +10827,7 @@
         <v>45317.4774537037</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10884,7 +10884,7 @@
         <v>45902.43572916667</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10941,7 +10941,7 @@
         <v>45902.64659722222</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10998,7 +10998,7 @@
         <v>45820.35901620371</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11055,7 +11055,7 @@
         <v>45902.65517361111</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11112,7 +11112,7 @@
         <v>45820.36895833333</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11169,7 +11169,7 @@
         <v>45348</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11226,7 +11226,7 @@
         <v>44946</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11288,7 +11288,7 @@
         <v>44433</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11345,7 +11345,7 @@
         <v>45904.58616898148</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11402,7 +11402,7 @@
         <v>45904.6228587963</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11459,7 +11459,7 @@
         <v>45909</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11521,7 +11521,7 @@
         <v>45908.55498842592</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11578,7 +11578,7 @@
         <v>45908.55878472222</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11635,7 +11635,7 @@
         <v>45908.58085648148</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11692,7 +11692,7 @@
         <v>45762.74259259259</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11749,7 +11749,7 @@
         <v>45582.45601851852</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11806,7 +11806,7 @@
         <v>45547.59736111111</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11863,7 +11863,7 @@
         <v>45908.5778587963</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
         <v>44698</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
         <v>45824.45982638889</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12034,7 +12034,7 @@
         <v>45911.45792824074</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12091,7 +12091,7 @@
         <v>45911.45128472222</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12148,7 +12148,7 @@
         <v>45826</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12205,7 +12205,7 @@
         <v>45826.54273148148</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12262,7 +12262,7 @@
         <v>45915.58936342593</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>45915.48523148148</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12376,7 +12376,7 @@
         <v>45912</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>45915.59482638889</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>45826.53549768519</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>45908</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>45831.46700231481</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>45916.60880787037</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>45908</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>45153</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12842,7 +12842,7 @@
         <v>45918.58409722222</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>44897</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12961,7 +12961,7 @@
         <v>44964</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13018,7 +13018,7 @@
         <v>45921</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13075,7 +13075,7 @@
         <v>45306.5512037037</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13132,7 +13132,7 @@
         <v>44993</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13189,7 +13189,7 @@
         <v>45833.65283564815</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13246,7 +13246,7 @@
         <v>45049</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13303,7 +13303,7 @@
         <v>44937.60048611111</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13360,7 +13360,7 @@
         <v>45355</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13417,7 +13417,7 @@
         <v>45618.46125</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>45233</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13531,7 +13531,7 @@
         <v>45731.44824074074</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         <v>45926.37987268518</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
         <v>45831</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13707,7 +13707,7 @@
         <v>45619.65883101852</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13764,7 +13764,7 @@
         <v>45631</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13821,7 +13821,7 @@
         <v>45930.52902777777</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13878,7 +13878,7 @@
         <v>44672.6129050926</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13935,7 +13935,7 @@
         <v>45630.54754629629</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13992,7 +13992,7 @@
         <v>45244.36306712963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14049,7 +14049,7 @@
         <v>45838.64310185185</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14106,7 +14106,7 @@
         <v>45229</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14163,7 +14163,7 @@
         <v>45244.39653935185</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14220,7 +14220,7 @@
         <v>44904.44300925926</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14277,7 +14277,7 @@
         <v>45819.54780092592</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14334,7 +14334,7 @@
         <v>44672.60231481482</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14391,7 +14391,7 @@
         <v>45630.55037037037</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>45630.55434027778</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>45630.56054398148</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14562,7 +14562,7 @@
         <v>45819.55914351852</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14619,7 +14619,7 @@
         <v>45618.52350694445</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14676,7 +14676,7 @@
         <v>45229</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14733,7 +14733,7 @@
         <v>45229</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14790,7 +14790,7 @@
         <v>44896.4927662037</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14847,7 +14847,7 @@
         <v>45936.71388888889</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14904,7 +14904,7 @@
         <v>45840.45519675926</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14961,7 +14961,7 @@
         <v>45840.45832175926</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>45203</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15075,7 +15075,7 @@
         <v>45840.45005787037</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15132,7 +15132,7 @@
         <v>45293</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15194,7 +15194,7 @@
         <v>45063.66107638889</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15251,7 +15251,7 @@
         <v>45148</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15308,7 +15308,7 @@
         <v>45937.72148148148</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15365,7 +15365,7 @@
         <v>45845.46209490741</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15422,7 +15422,7 @@
         <v>45938.61125</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15479,7 +15479,7 @@
         <v>45845.45950231481</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15536,7 +15536,7 @@
         <v>45939.92876157408</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15593,7 +15593,7 @@
         <v>45072</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15655,7 +15655,7 @@
         <v>45337</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15712,7 +15712,7 @@
         <v>44698</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15769,7 +15769,7 @@
         <v>44715</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         <v>45632.62700231482</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15883,7 +15883,7 @@
         <v>45401.63873842593</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15940,7 +15940,7 @@
         <v>45847.73737268519</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15997,7 +15997,7 @@
         <v>45849.68278935185</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16054,7 +16054,7 @@
         <v>45755</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16111,7 +16111,7 @@
         <v>45215.4892824074</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16168,7 +16168,7 @@
         <v>45863.51740740741</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16225,7 +16225,7 @@
         <v>45952.70298611111</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>45342</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16344,7 +16344,7 @@
         <v>45636</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16401,7 +16401,7 @@
         <v>45954.56396990741</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>44749</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>45351</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16577,7 +16577,7 @@
         <v>45214</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16634,7 +16634,7 @@
         <v>45261</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16696,7 +16696,7 @@
         <v>45575.65310185185</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>45488.47434027777</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16815,7 +16815,7 @@
         <v>45875.47351851852</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>45231.67237268519</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16929,7 +16929,7 @@
         <v>45874.59667824074</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16986,7 +16986,7 @@
         <v>45958</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17043,7 +17043,7 @@
         <v>44748</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17100,7 +17100,7 @@
         <v>45484</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17162,7 +17162,7 @@
         <v>45709.6652662037</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17219,7 +17219,7 @@
         <v>45740.54445601852</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17276,7 +17276,7 @@
         <v>45761.62880787037</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17333,7 +17333,7 @@
         <v>45362</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>44774.55405092592</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17447,7 +17447,7 @@
         <v>45881.59488425926</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17504,7 +17504,7 @@
         <v>44920.456875</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17561,7 +17561,7 @@
         <v>44920.47568287037</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17618,7 +17618,7 @@
         <v>44984</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>45002</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>45189.42894675926</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>45296</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17851,7 +17851,7 @@
         <v>44866</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17908,7 +17908,7 @@
         <v>44606</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>45805.34295138889</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>44503</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>45005</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>45560.74233796296</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>45974</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18255,7 +18255,7 @@
         <v>44897</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18317,7 +18317,7 @@
         <v>45974</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         <v>45640</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18436,7 +18436,7 @@
         <v>46021.60061342592</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18493,7 +18493,7 @@
         <v>45378</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18550,7 +18550,7 @@
         <v>45582.48181712963</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18607,7 +18607,7 @@
         <v>45674.65513888889</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18664,7 +18664,7 @@
         <v>46022.52351851852</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18721,7 +18721,7 @@
         <v>44958</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18778,7 +18778,7 @@
         <v>45313.57215277778</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18835,7 +18835,7 @@
         <v>45980.5125462963</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18892,7 +18892,7 @@
         <v>45981.5259375</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18949,7 +18949,7 @@
         <v>45175.5158912037</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19006,7 +19006,7 @@
         <v>45981.74020833334</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19063,7 +19063,7 @@
         <v>45640</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19120,7 +19120,7 @@
         <v>46022.50550925926</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19177,7 +19177,7 @@
         <v>45971</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19234,7 +19234,7 @@
         <v>45664</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19296,7 +19296,7 @@
         <v>46020</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19353,7 +19353,7 @@
         <v>45296</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19415,7 +19415,7 @@
         <v>45985.70537037037</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19472,7 +19472,7 @@
         <v>45188</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19529,7 +19529,7 @@
         <v>45982.68130787037</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         <v>45986</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19643,7 +19643,7 @@
         <v>44960.54981481482</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19700,7 +19700,7 @@
         <v>44755.41650462963</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19757,7 +19757,7 @@
         <v>45325</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19814,7 +19814,7 @@
         <v>46030</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19876,7 +19876,7 @@
         <v>45147</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19933,7 +19933,7 @@
         <v>45988.45547453704</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19990,7 +19990,7 @@
         <v>45755</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20052,7 +20052,7 @@
         <v>44467</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20109,7 +20109,7 @@
         <v>45618.77943287037</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20166,7 +20166,7 @@
         <v>46035.44850694444</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20223,7 +20223,7 @@
         <v>45313</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20280,7 +20280,7 @@
         <v>45993.37996527777</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20337,7 +20337,7 @@
         <v>45762.3846412037</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20394,7 +20394,7 @@
         <v>46035</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20456,7 +20456,7 @@
         <v>45625.69922453703</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20513,7 +20513,7 @@
         <v>45264</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20570,7 +20570,7 @@
         <v>45072</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20632,7 +20632,7 @@
         <v>45160.54324074074</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20689,7 +20689,7 @@
         <v>45522</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20746,7 +20746,7 @@
         <v>46038</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20803,7 +20803,7 @@
         <v>45614.60059027778</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20860,7 +20860,7 @@
         <v>46038</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20917,7 +20917,7 @@
         <v>45072</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20979,7 +20979,7 @@
         <v>46000.66350694445</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21036,7 +21036,7 @@
         <v>46000.67976851852</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21093,7 +21093,7 @@
         <v>46000</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21155,7 +21155,7 @@
         <v>45678</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21217,7 +21217,7 @@
         <v>46000.68755787037</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21274,7 +21274,7 @@
         <v>45145.53503472222</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         <v>45070.83295138889</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21388,7 +21388,7 @@
         <v>46002</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21450,7 +21450,7 @@
         <v>44593</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21512,7 +21512,7 @@
         <v>45400.63381944445</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21569,7 +21569,7 @@
         <v>46003.64498842593</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21626,7 +21626,7 @@
         <v>44812.38193287037</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21683,7 +21683,7 @@
         <v>44361</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21740,7 +21740,7 @@
         <v>46006</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21797,7 +21797,7 @@
         <v>46048.63460648148</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21854,7 +21854,7 @@
         <v>46047.77587962963</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21911,7 +21911,7 @@
         <v>45736</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21973,7 +21973,7 @@
         <v>46007.58407407408</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22030,7 +22030,7 @@
         <v>45678.44070601852</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22087,7 +22087,7 @@
         <v>45267</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22144,7 +22144,7 @@
         <v>45456.58092592593</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22201,7 +22201,7 @@
         <v>46050.62085648148</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22263,7 +22263,7 @@
         <v>46044</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>46048</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>46050.61942129629</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22444,7 +22444,7 @@
         <v>45478.49087962963</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22501,7 +22501,7 @@
         <v>46013</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22563,7 +22563,7 @@
         <v>46050</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22625,7 +22625,7 @@
         <v>46013.50890046296</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22682,7 +22682,7 @@
         <v>45953</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22739,7 +22739,7 @@
         <v>45677</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22801,7 +22801,7 @@
         <v>45392.60607638889</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22858,7 +22858,7 @@
         <v>46055</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22920,7 +22920,7 @@
         <v>46052</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22982,7 +22982,7 @@
         <v>46057</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23039,7 +23039,7 @@
         <v>46059.36449074074</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23096,7 +23096,7 @@
         <v>44580.49585648148</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23153,7 +23153,7 @@
         <v>44873</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23210,7 +23210,7 @@
         <v>45736</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23272,7 +23272,7 @@
         <v>44439.4424074074</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23329,7 +23329,7 @@
         <v>45470.38099537037</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23386,7 +23386,7 @@
         <v>44498.68288194444</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23443,7 +23443,7 @@
         <v>45268.52193287037</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23500,7 +23500,7 @@
         <v>45769</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23557,7 +23557,7 @@
         <v>44454</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23614,7 +23614,7 @@
         <v>45127</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23671,7 +23671,7 @@
         <v>45546.60534722222</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23728,7 +23728,7 @@
         <v>45667</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23790,7 +23790,7 @@
         <v>45618.60296296296</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23847,7 +23847,7 @@
         <v>44526</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23904,7 +23904,7 @@
         <v>45522</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23961,7 +23961,7 @@
         <v>45127</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24018,7 +24018,7 @@
         <v>45667</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24080,7 +24080,7 @@
         <v>45260</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24137,7 +24137,7 @@
         <v>45153</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24199,7 +24199,7 @@
         <v>44432.6599537037</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24256,7 +24256,7 @@
         <v>44432</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24318,7 +24318,7 @@
         <v>45351</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24380,7 +24380,7 @@
         <v>45393.72733796296</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24437,7 +24437,7 @@
         <v>45560.72877314815</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24494,7 +24494,7 @@
         <v>44897</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24556,7 +24556,7 @@
         <v>45111.57811342592</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24618,7 +24618,7 @@
         <v>45111.86663194445</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24675,7 +24675,7 @@
         <v>45261</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24737,7 +24737,7 @@
         <v>45251</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24794,7 +24794,7 @@
         <v>44608</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24851,7 +24851,7 @@
         <v>45215</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24908,7 +24908,7 @@
         <v>45071</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24970,7 +24970,7 @@
         <v>45532.41479166667</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25027,7 +25027,7 @@
         <v>45155</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25089,7 +25089,7 @@
         <v>45314.66091435185</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25146,7 +25146,7 @@
         <v>45488.43512731481</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25203,7 +25203,7 @@
         <v>44984</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25260,7 +25260,7 @@
         <v>45489.55241898148</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25317,7 +25317,7 @@
         <v>45456.56305555555</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25374,7 +25374,7 @@
         <v>45282</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25431,7 +25431,7 @@
         <v>45736</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25493,7 +25493,7 @@
         <v>45684.60918981482</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25555,7 +25555,7 @@
         <v>45774.31408564815</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25612,7 +25612,7 @@
         <v>45575.57584490741</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25669,7 +25669,7 @@
         <v>45684.61913194445</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25731,7 +25731,7 @@
         <v>45458</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25788,7 +25788,7 @@
         <v>45055</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25845,7 +25845,7 @@
         <v>45640</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25902,7 +25902,7 @@
         <v>45620</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25959,7 +25959,7 @@
         <v>45371.68351851852</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26016,7 +26016,7 @@
         <v>45111.87844907407</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26073,7 +26073,7 @@
         <v>45231</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26130,7 +26130,7 @@
         <v>44588.67795138889</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26187,7 +26187,7 @@
         <v>45138</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26244,7 +26244,7 @@
         <v>45138.49607638889</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26301,7 +26301,7 @@
         <v>45267</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26363,7 +26363,7 @@
         <v>44523</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26420,7 +26420,7 @@
         <v>45076</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26477,7 +26477,7 @@
         <v>45774.49328703704</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26534,7 +26534,7 @@
         <v>45700.58743055556</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26591,7 +26591,7 @@
         <v>45696</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26648,7 +26648,7 @@
         <v>45700.58284722222</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26705,7 +26705,7 @@
         <v>45296</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26767,7 +26767,7 @@
         <v>45723.63846064815</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26824,7 +26824,7 @@
         <v>45093</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26886,7 +26886,7 @@
         <v>44436</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26943,7 +26943,7 @@
         <v>44861.33518518518</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27000,7 +27000,7 @@
         <v>45356</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27062,7 +27062,7 @@
         <v>45371.6761574074</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27119,7 +27119,7 @@
         <v>45106</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27176,7 +27176,7 @@
         <v>45418.39914351852</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27233,7 +27233,7 @@
         <v>44704.61283564815</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27290,7 +27290,7 @@
         <v>45489.53511574074</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27347,7 +27347,7 @@
         <v>45120</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27404,7 +27404,7 @@
         <v>45582.47346064815</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27461,7 +27461,7 @@
         <v>45777.61415509259</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27518,7 +27518,7 @@
         <v>45614.32868055555</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27575,7 +27575,7 @@
         <v>45777.58376157407</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27632,7 +27632,7 @@
         <v>45777.60255787037</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27689,7 +27689,7 @@
         <v>45778.44113425926</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         <v>45778.54821759259</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27803,7 +27803,7 @@
         <v>45784.65680555555</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27860,7 +27860,7 @@
         <v>45784.65585648148</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27917,7 +27917,7 @@
         <v>45720.32241898148</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27974,7 +27974,7 @@
         <v>45721.63809027777</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28031,7 +28031,7 @@
         <v>45740.45726851852</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28088,7 +28088,7 @@
         <v>45408</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28145,7 +28145,7 @@
         <v>45714</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28207,7 +28207,7 @@
         <v>45740.82553240741</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28264,7 +28264,7 @@
         <v>45792.35853009259</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28321,7 +28321,7 @@
         <v>45792.52826388889</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28378,7 +28378,7 @@
         <v>45797.63988425926</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28435,7 +28435,7 @@
         <v>45797.64394675926</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28492,7 +28492,7 @@
         <v>45696</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28549,7 +28549,7 @@
         <v>45796.75053240741</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28606,7 +28606,7 @@
         <v>45796.49045138889</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>

--- a/Översikt MUNKEDAL.xlsx
+++ b/Översikt MUNKEDAL.xlsx
@@ -575,7 +575,7 @@
         <v>45517</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>45624.81018518518</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -779,7 +779,7 @@
         <v>44342</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>44581</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>44340</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>44903</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         <v>44361</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>45313</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>44676</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>45674.65603009259</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>44491.56581018519</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>44601</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>45575.6496412037</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>44978</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1840,7 +1840,7 @@
         <v>45313</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1925,7 +1925,7 @@
         <v>44943</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>45895.62070601852</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>45539</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>45670</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>44672.59796296297</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         <v>45947</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>45458</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>44889.55938657407</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>44339</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>44554.44054398148</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>44421.56398148148</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         <v>44251</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>44525</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>44664</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>44683</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>44509</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>44439</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>44651</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>44432.66158564815</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>44690</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>44581.38011574074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>44527</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>44831.70172453704</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>44580.49329861111</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>44563</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>44441</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>44806</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         <v>44414</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3741,7 +3741,7 @@
         <v>44411</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>44354.35579861111</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
         <v>44351</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>44356</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3969,7 +3969,7 @@
         <v>44277</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4026,7 +4026,7 @@
         <v>44691</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         <v>44277</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         <v>44866</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4197,7 +4197,7 @@
         <v>44497</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>44412</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>44630</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>44369</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         <v>44834</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>44358</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         <v>44358.5559375</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         <v>44459</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4663,7 +4663,7 @@
         <v>44438</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         <v>44246</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4782,7 +4782,7 @@
         <v>44866</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>44358.55907407407</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         <v>44823</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         <v>44325</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>44357.5115162037</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>44439.47009259259</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>44439</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>44607.49695601852</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>44385.52923611111</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>44704.61637731481</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>44683</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>44459.41528935185</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>44529.54961805556</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         <v>44609</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         <v>44678</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5637,7 +5637,7 @@
         <v>44356</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>44697.37650462963</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>45321.45766203704</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>45596.51541666667</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>45596.52245370371</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>45147</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>45488.45196759259</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>45488.45628472222</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         <v>44929.6516550926</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>44487</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6207,7 +6207,7 @@
         <v>45261</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>44579</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>45747.52431712963</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>45747.52716435185</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>45322.36609953704</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>45392.58446759259</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>44481.53412037037</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>45097</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>45640</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>45419.52296296296</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>45517.57771990741</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>45049</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>44747</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>45546.64320601852</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>45478.48052083333</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>45244</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>45573.4730324074</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>45736</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>45684.59584490741</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>45231.52905092593</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>45388.79927083333</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>45022.36556712963</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>45540.51292824074</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7538,7 +7538,7 @@
         <v>45540</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7600,7 +7600,7 @@
         <v>45154.62202546297</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>45166.35552083333</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         <v>45750.3245949074</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>45588.55344907408</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>45266.8790625</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>45189</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>44866</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>44447</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>45084.84119212963</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8118,7 +8118,7 @@
         <v>45084</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8175,7 +8175,7 @@
         <v>45800.65958333333</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         <v>45728.24693287037</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>45293</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>45803.55378472222</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>45884.48247685185</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>45755.49856481481</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>45264</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>44760</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>44630.59177083334</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>45804.60773148148</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8755,7 +8755,7 @@
         <v>45568.46953703704</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         <v>45819.34091435185</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>44694</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>45821.27439814815</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>45625</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>45723.67199074074</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>45805.3340625</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>45455.61503472222</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>45887.78379629629</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>45174</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         <v>45688.86247685185</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9392,7 +9392,7 @@
         <v>45557</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
         <v>45891</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         <v>45891</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>45890.56799768518</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>45890.57114583333</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>45762.75453703704</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>45890.63438657407</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>45111.53703703704</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9853,7 +9853,7 @@
         <v>45076</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>45029.43625</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>44935</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10024,7 +10024,7 @@
         <v>45229</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10081,7 +10081,7 @@
         <v>45895.6833449074</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10138,7 +10138,7 @@
         <v>45895.6096412037</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10195,7 +10195,7 @@
         <v>45894.54315972222</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10252,7 +10252,7 @@
         <v>44984</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10309,7 +10309,7 @@
         <v>45618.59667824074</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10366,7 +10366,7 @@
         <v>45897.3319675926</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>44806</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10485,7 +10485,7 @@
         <v>44357</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10542,7 +10542,7 @@
         <v>45901.59224537037</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10599,7 +10599,7 @@
         <v>45819.30428240741</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>45819.31267361111</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>45819.32221064815</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>45898</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10827,7 +10827,7 @@
         <v>45317.4774537037</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10884,7 +10884,7 @@
         <v>45902.43572916667</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10941,7 +10941,7 @@
         <v>45902.64659722222</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10998,7 +10998,7 @@
         <v>45820.35901620371</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11055,7 +11055,7 @@
         <v>45902.65517361111</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11112,7 +11112,7 @@
         <v>45820.36895833333</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11169,7 +11169,7 @@
         <v>45348</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11226,7 +11226,7 @@
         <v>44946</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11288,7 +11288,7 @@
         <v>44433</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11345,7 +11345,7 @@
         <v>45904.58616898148</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11402,7 +11402,7 @@
         <v>45904.6228587963</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11459,7 +11459,7 @@
         <v>45909</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11521,7 +11521,7 @@
         <v>45908.55498842592</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11578,7 +11578,7 @@
         <v>45908.55878472222</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11635,7 +11635,7 @@
         <v>45908.58085648148</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11692,7 +11692,7 @@
         <v>45762.74259259259</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11749,7 +11749,7 @@
         <v>45582.45601851852</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11806,7 +11806,7 @@
         <v>45547.59736111111</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11863,7 +11863,7 @@
         <v>45908.5778587963</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
         <v>44698</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
         <v>45824.45982638889</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12034,7 +12034,7 @@
         <v>45911.45792824074</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12091,7 +12091,7 @@
         <v>45911.45128472222</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12148,7 +12148,7 @@
         <v>45826</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12205,7 +12205,7 @@
         <v>45826.54273148148</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12262,7 +12262,7 @@
         <v>45915.58936342593</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>45915.48523148148</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12376,7 +12376,7 @@
         <v>45912</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>45915.59482638889</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>45826.53549768519</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>45908</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>45831.46700231481</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>45916.60880787037</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>45908</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>45153</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12842,7 +12842,7 @@
         <v>45918.58409722222</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>44897</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12961,7 +12961,7 @@
         <v>44964</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13018,7 +13018,7 @@
         <v>45921</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13075,7 +13075,7 @@
         <v>45306.5512037037</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13132,7 +13132,7 @@
         <v>44993</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13189,7 +13189,7 @@
         <v>45833.65283564815</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13246,7 +13246,7 @@
         <v>45049</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13303,7 +13303,7 @@
         <v>44937.60048611111</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13360,7 +13360,7 @@
         <v>45355</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13417,7 +13417,7 @@
         <v>45618.46125</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>45233</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13531,7 +13531,7 @@
         <v>45731.44824074074</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         <v>45926.37987268518</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
         <v>45831</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13707,7 +13707,7 @@
         <v>45619.65883101852</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13764,7 +13764,7 @@
         <v>45631</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13821,7 +13821,7 @@
         <v>45930.52902777777</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13878,7 +13878,7 @@
         <v>44672.6129050926</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13935,7 +13935,7 @@
         <v>45630.54754629629</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13992,7 +13992,7 @@
         <v>45244.36306712963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14049,7 +14049,7 @@
         <v>45838.64310185185</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14106,7 +14106,7 @@
         <v>45229</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14163,7 +14163,7 @@
         <v>45244.39653935185</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14220,7 +14220,7 @@
         <v>44904.44300925926</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14277,7 +14277,7 @@
         <v>45819.54780092592</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14334,7 +14334,7 @@
         <v>44672.60231481482</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14391,7 +14391,7 @@
         <v>45630.55037037037</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
         <v>45630.55434027778</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>45630.56054398148</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14562,7 +14562,7 @@
         <v>45819.55914351852</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14619,7 +14619,7 @@
         <v>45618.52350694445</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14676,7 +14676,7 @@
         <v>45229</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14733,7 +14733,7 @@
         <v>45229</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14790,7 +14790,7 @@
         <v>44896.4927662037</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14847,7 +14847,7 @@
         <v>45936.71388888889</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14904,7 +14904,7 @@
         <v>45840.45519675926</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14961,7 +14961,7 @@
         <v>45840.45832175926</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>45203</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15075,7 +15075,7 @@
         <v>45840.45005787037</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15132,7 +15132,7 @@
         <v>45293</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15194,7 +15194,7 @@
         <v>45063.66107638889</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15251,7 +15251,7 @@
         <v>45148</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15308,7 +15308,7 @@
         <v>45937.72148148148</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15365,7 +15365,7 @@
         <v>45845.46209490741</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15422,7 +15422,7 @@
         <v>45938.61125</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15479,7 +15479,7 @@
         <v>45845.45950231481</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15536,7 +15536,7 @@
         <v>45939.92876157408</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15593,7 +15593,7 @@
         <v>45072</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15655,7 +15655,7 @@
         <v>45337</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15712,7 +15712,7 @@
         <v>44698</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15769,7 +15769,7 @@
         <v>44715</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         <v>45632.62700231482</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15883,7 +15883,7 @@
         <v>45401.63873842593</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15940,7 +15940,7 @@
         <v>45847.73737268519</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15997,7 +15997,7 @@
         <v>45849.68278935185</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16054,7 +16054,7 @@
         <v>45755</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16111,7 +16111,7 @@
         <v>45215.4892824074</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16168,7 +16168,7 @@
         <v>45863.51740740741</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16225,7 +16225,7 @@
         <v>45952.70298611111</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>45342</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16344,7 +16344,7 @@
         <v>45636</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16401,7 +16401,7 @@
         <v>45954.56396990741</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>44749</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>45351</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16577,7 +16577,7 @@
         <v>45214</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16634,7 +16634,7 @@
         <v>45261</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16696,7 +16696,7 @@
         <v>45575.65310185185</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>45488.47434027777</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16815,7 +16815,7 @@
         <v>45875.47351851852</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>45231.67237268519</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16929,7 +16929,7 @@
         <v>45874.59667824074</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16986,7 +16986,7 @@
         <v>45958</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17043,7 +17043,7 @@
         <v>44748</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17100,7 +17100,7 @@
         <v>45484</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17162,7 +17162,7 @@
         <v>45709.6652662037</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17219,7 +17219,7 @@
         <v>45740.54445601852</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17276,7 +17276,7 @@
         <v>45761.62880787037</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17333,7 +17333,7 @@
         <v>45362</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>44774.55405092592</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17447,7 +17447,7 @@
         <v>45881.59488425926</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17504,7 +17504,7 @@
         <v>44920.456875</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17561,7 +17561,7 @@
         <v>44920.47568287037</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17618,7 +17618,7 @@
         <v>44984</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>45002</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>45189.42894675926</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>45296</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17851,7 +17851,7 @@
         <v>44866</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17908,7 +17908,7 @@
         <v>44606</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>45805.34295138889</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>44503</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>45005</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>45560.74233796296</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>45974</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18255,7 +18255,7 @@
         <v>44897</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18317,7 +18317,7 @@
         <v>45974</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         <v>45640</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18436,7 +18436,7 @@
         <v>46021.60061342592</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18493,7 +18493,7 @@
         <v>45378</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18550,7 +18550,7 @@
         <v>45582.48181712963</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18607,7 +18607,7 @@
         <v>45674.65513888889</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18664,7 +18664,7 @@
         <v>46022.52351851852</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18721,7 +18721,7 @@
         <v>44958</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18778,7 +18778,7 @@
         <v>45313.57215277778</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18835,7 +18835,7 @@
         <v>45980.5125462963</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18892,7 +18892,7 @@
         <v>45981.5259375</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18949,7 +18949,7 @@
         <v>45175.5158912037</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19006,7 +19006,7 @@
         <v>45981.74020833334</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19063,7 +19063,7 @@
         <v>45640</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19120,7 +19120,7 @@
         <v>46022.50550925926</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19177,7 +19177,7 @@
         <v>45971</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19234,7 +19234,7 @@
         <v>45664</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19296,7 +19296,7 @@
         <v>46020</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19353,7 +19353,7 @@
         <v>45296</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19415,7 +19415,7 @@
         <v>45985.70537037037</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19472,7 +19472,7 @@
         <v>45188</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19529,7 +19529,7 @@
         <v>45982.68130787037</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         <v>45986</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19643,7 +19643,7 @@
         <v>44960.54981481482</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19700,7 +19700,7 @@
         <v>44755.41650462963</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19757,7 +19757,7 @@
         <v>45325</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19814,7 +19814,7 @@
         <v>46030</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19876,7 +19876,7 @@
         <v>45147</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19933,7 +19933,7 @@
         <v>45988.45547453704</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19990,7 +19990,7 @@
         <v>45755</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20052,7 +20052,7 @@
         <v>44467</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20109,7 +20109,7 @@
         <v>45618.77943287037</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20166,7 +20166,7 @@
         <v>46035.44850694444</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20223,7 +20223,7 @@
         <v>45313</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20280,7 +20280,7 @@
         <v>45993.37996527777</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20337,7 +20337,7 @@
         <v>45762.3846412037</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20394,7 +20394,7 @@
         <v>46035</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20456,7 +20456,7 @@
         <v>45625.69922453703</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20513,7 +20513,7 @@
         <v>45264</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20570,7 +20570,7 @@
         <v>45072</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20632,7 +20632,7 @@
         <v>45160.54324074074</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20689,7 +20689,7 @@
         <v>45522</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20746,7 +20746,7 @@
         <v>46038</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20803,7 +20803,7 @@
         <v>45614.60059027778</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20860,7 +20860,7 @@
         <v>46038</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20917,7 +20917,7 @@
         <v>45072</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20979,7 +20979,7 @@
         <v>46000.66350694445</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21036,7 +21036,7 @@
         <v>46000.67976851852</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21093,7 +21093,7 @@
         <v>46000</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21155,7 +21155,7 @@
         <v>45678</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21217,7 +21217,7 @@
         <v>46000.68755787037</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21274,7 +21274,7 @@
         <v>45145.53503472222</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         <v>45070.83295138889</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21388,7 +21388,7 @@
         <v>46002</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21450,7 +21450,7 @@
         <v>44593</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21512,7 +21512,7 @@
         <v>45400.63381944445</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21569,7 +21569,7 @@
         <v>46003.64498842593</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21626,7 +21626,7 @@
         <v>44812.38193287037</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21683,7 +21683,7 @@
         <v>44361</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21740,7 +21740,7 @@
         <v>46006</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21797,7 +21797,7 @@
         <v>46048.63460648148</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21854,7 +21854,7 @@
         <v>46047.77587962963</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21911,7 +21911,7 @@
         <v>45736</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21973,7 +21973,7 @@
         <v>46007.58407407408</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22030,7 +22030,7 @@
         <v>45678.44070601852</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22087,7 +22087,7 @@
         <v>45267</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22144,7 +22144,7 @@
         <v>45456.58092592593</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22201,7 +22201,7 @@
         <v>46050.62085648148</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22263,7 +22263,7 @@
         <v>46044</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>46048</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>46050.61942129629</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22444,7 +22444,7 @@
         <v>45478.49087962963</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22501,7 +22501,7 @@
         <v>46013</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22563,7 +22563,7 @@
         <v>46050</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22625,7 +22625,7 @@
         <v>46013.50890046296</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22682,7 +22682,7 @@
         <v>45953</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22739,7 +22739,7 @@
         <v>45677</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22801,7 +22801,7 @@
         <v>45392.60607638889</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22858,7 +22858,7 @@
         <v>46055</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22920,7 +22920,7 @@
         <v>46052</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22982,7 +22982,7 @@
         <v>46057</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23039,7 +23039,7 @@
         <v>46059.36449074074</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23096,7 +23096,7 @@
         <v>44580.49585648148</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23153,7 +23153,7 @@
         <v>44873</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23210,7 +23210,7 @@
         <v>45736</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23272,7 +23272,7 @@
         <v>44439.4424074074</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23329,7 +23329,7 @@
         <v>45470.38099537037</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23386,7 +23386,7 @@
         <v>44498.68288194444</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23443,7 +23443,7 @@
         <v>45268.52193287037</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23500,7 +23500,7 @@
         <v>45769</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23557,7 +23557,7 @@
         <v>44454</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23614,7 +23614,7 @@
         <v>45127</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23671,7 +23671,7 @@
         <v>45546.60534722222</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23728,7 +23728,7 @@
         <v>45667</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23790,7 +23790,7 @@
         <v>45618.60296296296</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23847,7 +23847,7 @@
         <v>44526</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23904,7 +23904,7 @@
         <v>45522</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23961,7 +23961,7 @@
         <v>45127</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24018,7 +24018,7 @@
         <v>45667</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24080,7 +24080,7 @@
         <v>45260</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24137,7 +24137,7 @@
         <v>45153</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24199,7 +24199,7 @@
         <v>44432.6599537037</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24256,7 +24256,7 @@
         <v>44432</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24318,7 +24318,7 @@
         <v>45351</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24380,7 +24380,7 @@
         <v>45393.72733796296</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24437,7 +24437,7 @@
         <v>45560.72877314815</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24494,7 +24494,7 @@
         <v>44897</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24556,7 +24556,7 @@
         <v>45111.57811342592</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24618,7 +24618,7 @@
         <v>45111.86663194445</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24675,7 +24675,7 @@
         <v>45261</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24737,7 +24737,7 @@
         <v>45251</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24794,7 +24794,7 @@
         <v>44608</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24851,7 +24851,7 @@
         <v>45215</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24908,7 +24908,7 @@
         <v>45071</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24970,7 +24970,7 @@
         <v>45532.41479166667</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25027,7 +25027,7 @@
         <v>45155</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25089,7 +25089,7 @@
         <v>45314.66091435185</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25146,7 +25146,7 @@
         <v>45488.43512731481</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25203,7 +25203,7 @@
         <v>44984</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25260,7 +25260,7 @@
         <v>45489.55241898148</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25317,7 +25317,7 @@
         <v>45456.56305555555</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25374,7 +25374,7 @@
         <v>45282</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25431,7 +25431,7 @@
         <v>45736</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25493,7 +25493,7 @@
         <v>45684.60918981482</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25555,7 +25555,7 @@
         <v>45774.31408564815</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25612,7 +25612,7 @@
         <v>45575.57584490741</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25669,7 +25669,7 @@
         <v>45684.61913194445</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25731,7 +25731,7 @@
         <v>45458</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25788,7 +25788,7 @@
         <v>45055</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25845,7 +25845,7 @@
         <v>45640</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25902,7 +25902,7 @@
         <v>45620</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25959,7 +25959,7 @@
         <v>45371.68351851852</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26016,7 +26016,7 @@
         <v>45111.87844907407</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26073,7 +26073,7 @@
         <v>45231</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26130,7 +26130,7 @@
         <v>44588.67795138889</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26187,7 +26187,7 @@
         <v>45138</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26244,7 +26244,7 @@
         <v>45138.49607638889</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26301,7 +26301,7 @@
         <v>45267</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26363,7 +26363,7 @@
         <v>44523</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26420,7 +26420,7 @@
         <v>45076</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26477,7 +26477,7 @@
         <v>45774.49328703704</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26534,7 +26534,7 @@
         <v>45700.58743055556</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26591,7 +26591,7 @@
         <v>45696</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26648,7 +26648,7 @@
         <v>45700.58284722222</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26705,7 +26705,7 @@
         <v>45296</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26767,7 +26767,7 @@
         <v>45723.63846064815</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26824,7 +26824,7 @@
         <v>45093</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26886,7 +26886,7 @@
         <v>44436</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26943,7 +26943,7 @@
         <v>44861.33518518518</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27000,7 +27000,7 @@
         <v>45356</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27062,7 +27062,7 @@
         <v>45371.6761574074</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27119,7 +27119,7 @@
         <v>45106</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27176,7 +27176,7 @@
         <v>45418.39914351852</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27233,7 +27233,7 @@
         <v>44704.61283564815</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27290,7 +27290,7 @@
         <v>45489.53511574074</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27347,7 +27347,7 @@
         <v>45120</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27404,7 +27404,7 @@
         <v>45582.47346064815</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27461,7 +27461,7 @@
         <v>45777.61415509259</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27518,7 +27518,7 @@
         <v>45614.32868055555</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27575,7 +27575,7 @@
         <v>45777.58376157407</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27632,7 +27632,7 @@
         <v>45777.60255787037</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27689,7 +27689,7 @@
         <v>45778.44113425926</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         <v>45778.54821759259</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27803,7 +27803,7 @@
         <v>45784.65680555555</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27860,7 +27860,7 @@
         <v>45784.65585648148</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27917,7 +27917,7 @@
         <v>45720.32241898148</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27974,7 +27974,7 @@
         <v>45721.63809027777</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28031,7 +28031,7 @@
         <v>45740.45726851852</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28088,7 +28088,7 @@
         <v>45408</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28145,7 +28145,7 @@
         <v>45714</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28207,7 +28207,7 @@
         <v>45740.82553240741</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28264,7 +28264,7 @@
         <v>45792.35853009259</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28321,7 +28321,7 @@
         <v>45792.52826388889</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28378,7 +28378,7 @@
         <v>45797.63988425926</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28435,7 +28435,7 @@
         <v>45797.64394675926</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28492,7 +28492,7 @@
         <v>45696</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28549,7 +28549,7 @@
         <v>45796.75053240741</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28606,7 +28606,7 @@
         <v>45796.49045138889</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
